--- a/medicine/Enfance/Aurélie_Wellenstein/Aurélie_Wellenstein.xlsx
+++ b/medicine/Enfance/Aurélie_Wellenstein/Aurélie_Wellenstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Wellenstein</t>
+          <t>Aurélie_Wellenstein</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aurélie Wellenstein, née en 1980 à Paris, est une écrivaine française, principalement de récits de fantasy, et scénariste de bande-dessinée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Wellenstein</t>
+          <t>Aurélie_Wellenstein</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marquée par la lecture de Croc-Blanc et de L'Appel de la forêt de Jack London, c'est dès l'enfance que lui vient l'envie d'être écrivain. Les animaux occupent une grande place dans ses romans : animal réel ou bien totémique, devenir-animaux, réflexion sur notre relation avec notre soi sauvage[1]...
-Après des études littéraires et l'écriture d'un mémoire de lettres modernes dédié au « devenir-cheval de Franck Venaille[2] », elle publie ses premières nouvelles à partir de 2007, dans des revues, des anthologies ou des fanzines.
-Son premier roman, Le Cheval et l'Ombre, sort aux éditions Sortilèges en 2013. Ses romans ultérieurs font l'objet de plusieurs sélections et nominations pour des prix littéraires. En 2015, Le Roi des fauves est sélectionné pour le prix révélations des Futuriales, le prix Elbakin.net, le prix Imaginales des Lycéens, le grand prix de l'Imaginaire et Lire en Seine. Il est lauréat du Prix des Halliennales[3]. En 2016, Les Loups chantants est sélectionné pour le grand prix de l'Imaginaire, le Prix Imaginales Jeunesse et le Prix Imaginales des collégiens, ainsi que pour le prix du roman contemporain de la ville de Poitiers. Il obtient le prix Elbakin - meilleur roman de fantasy jeunesse français[4]. En 2017, Chevaux de foudre est également sélectionné pour sept prix et obtient le Prix Escapages 2017 (Catégorie + 12 ans)[5]. La Fille de Tchernobyl est lauréat du « Coup de cœur Jeunesse de la ville d'Asnières » 2017[6].
-En 2017, Aurélie Wellenstein est l'auteur « coup de cœur » du festival des Imaginales[7]. Trois ans plus tard, elle obtient le prix Imaginales des bibliothécaires et le PLIB pour Mers mortes[8] . Plusieurs de ses romans publiés initialement chez Scrinéo sont réédités chez Pocket[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marquée par la lecture de Croc-Blanc et de L'Appel de la forêt de Jack London, c'est dès l'enfance que lui vient l'envie d'être écrivain. Les animaux occupent une grande place dans ses romans : animal réel ou bien totémique, devenir-animaux, réflexion sur notre relation avec notre soi sauvage...
+Après des études littéraires et l'écriture d'un mémoire de lettres modernes dédié au « devenir-cheval de Franck Venaille », elle publie ses premières nouvelles à partir de 2007, dans des revues, des anthologies ou des fanzines.
+Son premier roman, Le Cheval et l'Ombre, sort aux éditions Sortilèges en 2013. Ses romans ultérieurs font l'objet de plusieurs sélections et nominations pour des prix littéraires. En 2015, Le Roi des fauves est sélectionné pour le prix révélations des Futuriales, le prix Elbakin.net, le prix Imaginales des Lycéens, le grand prix de l'Imaginaire et Lire en Seine. Il est lauréat du Prix des Halliennales. En 2016, Les Loups chantants est sélectionné pour le grand prix de l'Imaginaire, le Prix Imaginales Jeunesse et le Prix Imaginales des collégiens, ainsi que pour le prix du roman contemporain de la ville de Poitiers. Il obtient le prix Elbakin - meilleur roman de fantasy jeunesse français. En 2017, Chevaux de foudre est également sélectionné pour sept prix et obtient le Prix Escapages 2017 (Catégorie + 12 ans). La Fille de Tchernobyl est lauréat du « Coup de cœur Jeunesse de la ville d'Asnières » 2017.
+En 2017, Aurélie Wellenstein est l'auteur « coup de cœur » du festival des Imaginales. Trois ans plus tard, elle obtient le prix Imaginales des bibliothécaires et le PLIB pour Mers mortes . Plusieurs de ses romans publiés initialement chez Scrinéo sont réédités chez Pocket.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Wellenstein</t>
+          <t>Aurélie_Wellenstein</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,28 +561,169 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans jeunesse
-Le Cheval et l'Ombre, Sortilèges, 2013  (ISBN 979-10-91228-06-0)
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Cheval et l'Ombre, Sortilèges, 2013  (ISBN 979-10-91228-06-0)
 Chevaux de foudre, Magnard, 2015  (ISBN 978-2-210-96126-5)
 La Fille de Tchernobyl, Magnard, 2016  (ISBN 978-2-210-96250-7)
 Blé noir, Gulf Stream, coll. « Électrogène », 2019  (ISBN 978-2-35488-685-1)
-Pirates de l'espace : les baleines stellaires, Auzou, 2023  (ISBN 979-1039512251)
-Série L'Épée, la Famine et la Peste
-L'Épée, la Famine et la Peste - I, Scrineo, 2022  (ISBN 978-2-38167-132-1)Réédition, Pocket, coll. « Imaginaire » no 7362, 2024  (ISBN 978-2-266-34012-0) (à paraître le 21 mars 2023)
-L'Épée, la Famine et la Peste - II, Scrineo, 2023  (ISBN 978-2-38167-135-2)Réédition, Pocket, coll. « Imaginaire » no 7363, 2024  (ISBN 978-2-266-34013-7) (à paraître le 21 mars 2023)
-Autres romans
-Le Roi des fauves, Scrineo, 2015  (ISBN 978-2-36740-302-1)Réédition, Pocket, coll. « Imaginaire » no 7226, 2017  (ISBN 978-2-266-27312-1)
+Pirates de l'espace : les baleines stellaires, Auzou, 2023  (ISBN 979-1039512251)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aurélie_Wellenstein</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aur%C3%A9lie_Wellenstein</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série L'Épée, la Famine et la Peste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Épée, la Famine et la Peste - I, Scrineo, 2022  (ISBN 978-2-38167-132-1)Réédition, Pocket, coll. « Imaginaire » no 7362, 2024  (ISBN 978-2-266-34012-0) (à paraître le 21 mars 2023)
+L'Épée, la Famine et la Peste - II, Scrineo, 2023  (ISBN 978-2-38167-135-2)Réédition, Pocket, coll. « Imaginaire » no 7363, 2024  (ISBN 978-2-266-34013-7) (à paraître le 21 mars 2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aurélie_Wellenstein</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aur%C3%A9lie_Wellenstein</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Roi des fauves, Scrineo, 2015  (ISBN 978-2-36740-302-1)Réédition, Pocket, coll. « Imaginaire » no 7226, 2017  (ISBN 978-2-266-27312-1)
 Les Loups chantants, Scrineo, 2016  (ISBN 978-2-36740-409-7)Réédition, Pocket, coll. « Imaginaire » no 7230, 2018  (ISBN 978-2-266-27313-8)
 La Mort du temps, Scrineo, 2017  (ISBN 978-2-36740-500-1)Réédition, Pocket, coll. « Imaginaire » no 7267, 2019  (ISBN 978-2-266-29204-7)
 Le Dieu oiseau, Scrineo, 2018  (ISBN 978-2-36740-582-7)Réédition, Pocket, coll. « Imaginaire » no 7284, 2020  (ISBN 978-2-266-29768-4)
 Mers mortes, Scrineo, 2019  (ISBN 978-2-36740-660-2)Réédition, Pocket, coll. « Imaginaire » no 7302, 2021  (ISBN 978-2-266-31086-4)
 Yardam, Scrineo, 2020  (ISBN 978-2-36740-863-7)Réédition, Pocket, coll. « Imaginaire » no 7316, 2022  (ISBN 978-2-266-32241-6)
-Le Désert des couleurs, Scrineo, 2021  (ISBN 978-2-36740-998-6)Réédition, Pocket, coll. « Imaginaire » no 7343, 2023  (ISBN 978-2-266-32699-5)
-Bandes dessinées
-La baleine blanche des mers mortes, Drakoo, 2021, scénario : Aurélie Wellenstein - dessins : Olivier Boiscommun
-Equinox - Tome 1 - cheval de lune, Drakoo, 2023 - scénario : Aurélie Wellenstein - dessins : Aurora Gate
-Nouvelles
-Par ordre chronologique de parution des nouvelles.
+Le Désert des couleurs, Scrineo, 2021  (ISBN 978-2-36740-998-6)Réédition, Pocket, coll. « Imaginaire » no 7343, 2023  (ISBN 978-2-266-32699-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aurélie_Wellenstein</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aur%C3%A9lie_Wellenstein</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La baleine blanche des mers mortes, Drakoo, 2021, scénario : Aurélie Wellenstein - dessins : Olivier Boiscommun
+Equinox - Tome 1 - cheval de lune, Drakoo, 2023 - scénario : Aurélie Wellenstein - dessins : Aurora Gate</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aurélie_Wellenstein</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aur%C3%A9lie_Wellenstein</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Par ordre chronologique de parution des nouvelles.
 Tout le monde a droit à la mer, revue Monk, 2007
 Sac d’os, web-revue Univers d’Outremonde, 2007
 Un chemin dans le noir, revue Borderline, 2009
